--- a/BSGTopics.xlsx
+++ b/BSGTopics.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigStudyGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigStudyGroup\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{125B7BA9-3025-4A27-A10F-8791A4478A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA59057C-8190-497C-9F10-8B0BFF1B192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{057A0D91-5F03-46F3-83E7-3D852CD6F67E}"/>
   </bookViews>
   <sheets>
     <sheet name="BSG Topic Videos" sheetId="1" r:id="rId1"/>
-    <sheet name="Lambda" sheetId="2" r:id="rId2"/>
+    <sheet name="UdemyProject1-Overview of AWS" sheetId="3" r:id="rId2"/>
+    <sheet name="Lambda" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="164">
   <si>
     <t>Theme</t>
   </si>
@@ -1002,7 +1003,7 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C35" sqref="C35:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2039,10 +2040,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2E17F3-735C-4E50-941D-78C6B0B06B5F}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2711C281-BE8A-43E6-8E41-F2B30F7015DF}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/BSGTopics.xlsx
+++ b/BSGTopics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigStudyGroup\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA59057C-8190-497C-9F10-8B0BFF1B192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42504A8-55E1-4D4D-B49F-DD0BB25568A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{057A0D91-5F03-46F3-83E7-3D852CD6F67E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{057A0D91-5F03-46F3-83E7-3D852CD6F67E}"/>
   </bookViews>
   <sheets>
     <sheet name="BSG Topic Videos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="170">
   <si>
     <t>Theme</t>
   </si>
@@ -528,6 +528,24 @@
   </si>
   <si>
     <t>Create a Microservices Architecture  enabling trigerring SQL Functions that would connect to Cloudwarehouse and fetch the results in to a AWS Redshift . Tableau Dashboard has to  be build for Searc Results</t>
+  </si>
+  <si>
+    <t>Containers (Docker)</t>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>Prasad and Sravan</t>
+  </si>
+  <si>
+    <t>Raman and Satyaraj</t>
+  </si>
+  <si>
+    <t>OCT - Vijaydasami</t>
   </si>
 </sst>
 </file>
@@ -593,7 +611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +636,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -631,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -675,16 +699,20 @@
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB2DDA-ED9E-4995-8440-7CF7A4566A7F}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C58"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,6 +1276,9 @@
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
@@ -1313,7 +1344,7 @@
       <c r="B40" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="24" t="s">
         <v>117</v>
       </c>
       <c r="D40" s="4"/>
@@ -1326,7 +1357,7 @@
       <c r="B41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="25" t="s">
         <v>121</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -1337,7 +1368,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="25" t="s">
         <v>120</v>
       </c>
       <c r="D42" s="20"/>
@@ -1348,7 +1379,7 @@
       <c r="B43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="25" t="s">
         <v>116</v>
       </c>
       <c r="D43" s="4"/>
@@ -1359,7 +1390,7 @@
       <c r="B44" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="26" t="s">
         <v>122</v>
       </c>
       <c r="D44" s="17"/>
@@ -1372,7 +1403,7 @@
       <c r="B45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="25" t="s">
         <v>123</v>
       </c>
       <c r="D45" s="4"/>
@@ -1383,7 +1414,7 @@
       <c r="B46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D46" s="4"/>
@@ -1456,7 +1487,7 @@
       <c r="B53" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D53" s="7"/>
@@ -1467,7 +1498,7 @@
       <c r="B54" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2043,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2E17F3-735C-4E50-941D-78C6B0B06B5F}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2171,15 +2202,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2711C281-BE8A-43E6-8E41-F2B30F7015DF}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.6328125" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
@@ -2249,97 +2280,118 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>150</v>
+      <c r="A13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>152</v>
+      <c r="A17" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>145</v>
+      <c r="A18" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="25" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
         <v>161</v>
       </c>
     </row>

--- a/BSGTopics.xlsx
+++ b/BSGTopics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigStudyGroup\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42504A8-55E1-4D4D-B49F-DD0BB25568A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A854B570-CD07-4F5B-89E7-A7E4003B4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{057A0D91-5F03-46F3-83E7-3D852CD6F67E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="180">
   <si>
     <t>Theme</t>
   </si>
@@ -546,6 +546,36 @@
   </si>
   <si>
     <t>OCT - Vijaydasami</t>
+  </si>
+  <si>
+    <t>Data Governance on Cloud</t>
+  </si>
+  <si>
+    <t>Data Profiling on Cloud</t>
+  </si>
+  <si>
+    <t>Data Quality dimensions</t>
+  </si>
+  <si>
+    <t>Data Security and controls</t>
+  </si>
+  <si>
+    <t>Data Catalog</t>
+  </si>
+  <si>
+    <t>Test data management - Data scrubbing/masking/archival</t>
+  </si>
+  <si>
+    <t>Data Audit - verification and validation</t>
+  </si>
+  <si>
+    <t>Experimentational data samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Used Services in AWS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Example S3 </t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB2DDA-ED9E-4995-8440-7CF7A4566A7F}">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1874,193 +1904,193 @@
       <c r="E96" s="12"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
-        <v>12</v>
+      <c r="A97" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
-        <v>13</v>
+      <c r="A98" s="6"/>
+      <c r="B98" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>14</v>
+      <c r="A99" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
-        <v>16</v>
+      <c r="A100" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>21</v>
+      <c r="A101" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
-        <v>23</v>
+      <c r="A102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" t="s">
-        <v>47</v>
+      <c r="A103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="6"/>
+      <c r="A104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105" t="s">
-        <v>50</v>
+      <c r="A105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="6" t="s">
-        <v>24</v>
+      <c r="A106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="6" t="s">
-        <v>25</v>
+      <c r="A107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>9</v>
+      <c r="A108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
-        <v>14</v>
+      <c r="A118" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
-        <v>16</v>
+      <c r="A119" s="5"/>
+      <c r="B119" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
-        <v>21</v>
+      <c r="A120" s="5"/>
+      <c r="B120" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
-        <v>23</v>
+      <c r="A121" s="5"/>
+      <c r="B121" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
-        <v>24</v>
+      <c r="A122" s="5"/>
+      <c r="B122" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>26</v>
+      <c r="A123" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B124" t="s">
-        <v>51</v>
+      <c r="A124" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="5"/>
-      <c r="B125" t="s">
-        <v>52</v>
+      <c r="A125" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="5"/>
-      <c r="B126" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="5"/>
-      <c r="B127" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="5"/>
-      <c r="B128" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="A126" t="s">
         <v>6</v>
       </c>
     </row>

--- a/BSGTopics.xlsx
+++ b/BSGTopics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigStudyGroup\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A854B570-CD07-4F5B-89E7-A7E4003B4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D614240-2631-4E9E-84C8-AF399CFB184D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{057A0D91-5F03-46F3-83E7-3D852CD6F67E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
   <si>
     <t>Theme</t>
   </si>
@@ -365,9 +365,6 @@
     <t xml:space="preserve">            3. AWS redshift Resource Management </t>
   </si>
   <si>
-    <t xml:space="preserve">ETL Mechanisms </t>
-  </si>
-  <si>
     <t>EC2</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
     <t>End to End Environment Setup</t>
   </si>
   <si>
-    <t>Script</t>
-  </si>
-  <si>
     <t>Next Steps</t>
   </si>
   <si>
@@ -576,6 +570,15 @@
   </si>
   <si>
     <t xml:space="preserve">   Example S3 </t>
+  </si>
+  <si>
+    <t>Satyaraj</t>
+  </si>
+  <si>
+    <t>Sravan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raman </t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB2DDA-ED9E-4995-8440-7CF7A4566A7F}">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1307,7 +1310,7 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1315,10 +1318,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1329,10 +1332,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E36" s="16"/>
       <c r="H36" t="s">
@@ -1356,7 +1359,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>178</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -1364,9 +1370,11 @@
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -1375,7 +1383,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="20" t="s">
@@ -1388,10 +1396,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="E41" s="4"/>
     </row>
@@ -1399,9 +1407,11 @@
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -1410,9 +1420,11 @@
         <v>46</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -1421,7 +1433,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
@@ -1434,9 +1446,11 @@
         <v>37</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -1445,9 +1459,11 @@
         <v>38</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -1456,7 +1472,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1467,9 +1483,11 @@
         <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1478,9 +1496,11 @@
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1489,7 +1509,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1507,9 +1530,11 @@
         <v>44</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1518,9 +1543,11 @@
         <v>45</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -1529,12 +1556,11 @@
         <v>56</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
@@ -1546,10 +1572,6 @@
       <c r="C55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
@@ -1559,10 +1581,10 @@
         <v>63</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="E56" s="7"/>
     </row>
@@ -1572,7 +1594,7 @@
         <v>62</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -1583,7 +1605,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18" t="s">
@@ -1595,6 +1617,9 @@
       <c r="B59" s="18" t="s">
         <v>59</v>
       </c>
+      <c r="C59" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18" t="s">
         <v>98</v>
@@ -1604,6 +1629,9 @@
       <c r="A60" s="3"/>
       <c r="B60" s="18" t="s">
         <v>97</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -1937,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1945,7 +1973,7 @@
         <v>15</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1953,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -1961,7 +1989,7 @@
         <v>11</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -1969,7 +1997,7 @@
         <v>17</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -1977,7 +2005,7 @@
         <v>18</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1985,7 +2013,7 @@
         <v>19</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -2003,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2016,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -2024,7 +2052,7 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -2112,12 +2140,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -2127,67 +2155,67 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -2197,17 +2225,17 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
@@ -2217,12 +2245,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2249,59 +2277,59 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" t="s">
         <v>137</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -2311,38 +2339,38 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
@@ -2352,77 +2380,77 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/BSGTopics.xlsx
+++ b/BSGTopics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigStudyGroup\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D614240-2631-4E9E-84C8-AF399CFB184D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94D5E20-6282-4B14-BFD9-131015A31182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{057A0D91-5F03-46F3-83E7-3D852CD6F67E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
   <si>
     <t>Theme</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t xml:space="preserve">Raman </t>
+  </si>
+  <si>
+    <t>Satyaraj Jonnalagadda</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
   <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1373,7 +1376,7 @@
         <v>118</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E39" s="4"/>
     </row>

--- a/BSGTopics.xlsx
+++ b/BSGTopics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigStudyGroup\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94D5E20-6282-4B14-BFD9-131015A31182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDCDBFE-7CC5-4BAD-B59D-75F5FD20BDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{057A0D91-5F03-46F3-83E7-3D852CD6F67E}"/>
   </bookViews>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">Raman </t>
   </si>
   <si>
-    <t>Satyaraj Jonnalagadda</t>
+    <t>Satyaraj Jonnalagadda V1</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/BSGTopics.xlsx
+++ b/BSGTopics.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigStudyGroup\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\BigStudyGroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDCDBFE-7CC5-4BAD-B59D-75F5FD20BDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{057A0D91-5F03-46F3-83E7-3D852CD6F67E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="BSG Topic Videos" sheetId="1" r:id="rId1"/>
     <sheet name="UdemyProject1-Overview of AWS" sheetId="3" r:id="rId2"/>
     <sheet name="Lambda" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
   <si>
     <t>Theme</t>
   </si>
@@ -582,12 +581,15 @@
   </si>
   <si>
     <t>Satyaraj Jonnalagadda V1</t>
+  </si>
+  <si>
+    <t>Sravan updated on 8/22 11:34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1063,26 +1065,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB2DDA-ED9E-4995-8440-7CF7A4566A7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
-    <col min="2" max="2" width="59.90625" customWidth="1"/>
-    <col min="3" max="3" width="62.81640625" customWidth="1"/>
-    <col min="4" max="5" width="59.90625" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" customWidth="1"/>
-    <col min="9" max="9" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <col min="4" max="5" width="59.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -1131,12 +1133,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1147,7 +1149,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -1155,12 +1157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>71</v>
       </c>
@@ -1168,22 +1170,22 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>67</v>
       </c>
@@ -1191,7 +1193,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
@@ -1199,7 +1201,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>66</v>
       </c>
@@ -1207,7 +1209,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>75</v>
       </c>
@@ -1215,7 +1217,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>76</v>
       </c>
@@ -1223,92 +1225,92 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
@@ -1316,7 +1318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -1345,7 +1347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="s">
         <v>33</v>
@@ -1356,7 +1358,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>34</v>
@@ -1369,7 +1371,7 @@
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="8" t="s">
@@ -1380,7 +1382,7 @@
       </c>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="20" t="s">
         <v>35</v>
@@ -1393,7 +1395,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>36</v>
@@ -1402,11 +1404,11 @@
         <v>120</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="25" t="s">
@@ -1417,7 +1419,7 @@
       </c>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
         <v>46</v>
@@ -1430,7 +1432,7 @@
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="17" t="s">
         <v>47</v>
@@ -1443,7 +1445,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>37</v>
@@ -1456,7 +1458,7 @@
       </c>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>38</v>
@@ -1469,7 +1471,7 @@
       </c>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>39</v>
@@ -1480,7 +1482,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>40</v>
@@ -1493,7 +1495,7 @@
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
         <v>41</v>
@@ -1506,7 +1508,7 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>42</v>
@@ -1518,7 +1520,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>43</v>
@@ -1527,7 +1529,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="7" t="s">
         <v>44</v>
@@ -1540,7 +1542,7 @@
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="7" t="s">
         <v>45</v>
@@ -1553,7 +1555,7 @@
       </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="7" t="s">
         <v>56</v>
@@ -1565,7 +1567,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>10</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
@@ -1591,7 +1593,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="18" t="s">
         <v>62</v>
@@ -1602,7 +1604,7 @@
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="18" t="s">
         <v>58</v>
@@ -1615,7 +1617,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="18" t="s">
         <v>59</v>
@@ -1628,7 +1630,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="18" t="s">
         <v>97</v>
@@ -1639,7 +1641,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="7" t="s">
         <v>60</v>
@@ -1647,7 +1649,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="7" t="s">
         <v>58</v>
@@ -1655,14 +1657,14 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>57</v>
       </c>
@@ -1670,7 +1672,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>61</v>
       </c>
@@ -1678,7 +1680,7 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>58</v>
       </c>
@@ -1686,7 +1688,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
@@ -1694,7 +1696,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>57</v>
       </c>
@@ -1702,7 +1704,7 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>64</v>
       </c>
@@ -1710,7 +1712,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
@@ -1718,7 +1720,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>58</v>
       </c>
@@ -1726,7 +1728,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>59</v>
       </c>
@@ -1734,7 +1736,7 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>57</v>
       </c>
@@ -1742,7 +1744,7 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>60</v>
       </c>
@@ -1750,7 +1752,7 @@
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>58</v>
       </c>
@@ -1758,7 +1760,7 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>59</v>
       </c>
@@ -1766,7 +1768,7 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>57</v>
       </c>
@@ -1774,7 +1776,7 @@
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>61</v>
       </c>
@@ -1782,7 +1784,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>58</v>
       </c>
@@ -1790,7 +1792,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>59</v>
       </c>
@@ -1798,7 +1800,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>57</v>
       </c>
@@ -1806,7 +1808,7 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -1817,13 +1819,13 @@
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
     </row>
-    <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>17</v>
       </c>
@@ -1832,17 +1834,17 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>20</v>
       </c>
@@ -1853,7 +1855,7 @@
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="12" t="s">
         <v>78</v>
@@ -1862,7 +1864,7 @@
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="12" t="s">
         <v>79</v>
@@ -1871,7 +1873,7 @@
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="12" t="s">
         <v>80</v>
@@ -1880,7 +1882,7 @@
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="12" t="s">
         <v>81</v>
@@ -1889,7 +1891,7 @@
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="13" t="s">
         <v>82</v>
@@ -1898,7 +1900,7 @@
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="12" t="s">
         <v>83</v>
@@ -1907,7 +1909,7 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="12" t="s">
         <v>85</v>
@@ -1916,7 +1918,7 @@
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="12" t="s">
         <v>86</v>
@@ -1925,7 +1927,7 @@
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="12" t="s">
         <v>87</v>
@@ -1934,18 +1936,18 @@
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>49</v>
       </c>
@@ -1953,17 +1955,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>15</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +1989,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>11</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>17</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>18</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>19</v>
       </c>
@@ -2019,17 +2021,17 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>13</v>
       </c>
@@ -2037,12 +2039,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>16</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>21</v>
       </c>
@@ -2058,22 +2060,22 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>30</v>
       </c>
@@ -2081,46 +2083,46 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -2132,126 +2134,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2E17F3-735C-4E50-941D-78C6B0B06B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -2262,28 +2264,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2711C281-BE8A-43E6-8E41-F2B30F7015DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="14.6328125" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>161</v>
       </c>
@@ -2291,7 +2293,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -2310,37 +2312,37 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
@@ -2348,7 +2350,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -2356,102 +2358,102 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>159</v>
       </c>
